--- a/map/4.3.xlsx
+++ b/map/4.3.xlsx
@@ -127,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -143,6 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,7 +427,7 @@
   <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AN5" sqref="AN5"/>
+      <selection activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +552,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
+      <c r="S2" s="15"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
@@ -586,7 +587,7 @@
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
+      <c r="S3" s="15"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
@@ -606,21 +607,21 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
@@ -641,21 +642,21 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
@@ -689,8 +690,8 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
@@ -724,8 +725,8 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -751,7 +752,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -759,8 +760,8 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -786,7 +787,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="15"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -794,8 +795,8 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
@@ -823,14 +824,14 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -858,27 +859,27 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="15"/>
+      <c r="Z11" s="15"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -899,21 +900,21 @@
       <c r="N12" s="3"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -934,8 +935,8 @@
       <c r="N13" s="11"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
@@ -969,11 +970,11 @@
       <c r="N14" s="13"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
+      <c r="U14" s="12"/>
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
       <c r="X14" s="6"/>
@@ -1004,11 +1005,11 @@
       <c r="N15" s="13"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="2"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="U15" s="12"/>
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
       <c r="X15" s="6"/>
@@ -1138,7 +1139,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="6"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -1154,8 +1155,8 @@
       <c r="X19" s="6"/>
       <c r="Y19" s="6"/>
       <c r="Z19" s="6"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
       <c r="AC19" s="6"/>
       <c r="AD19" s="6"/>
       <c r="AE19" s="6"/>
@@ -1173,8 +1174,8 @@
       <c r="H20" s="9"/>
       <c r="I20" s="6"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -1190,7 +1191,7 @@
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
       <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
+      <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
       <c r="AD20" s="6"/>
       <c r="AE20" s="6"/>
@@ -1207,9 +1208,9 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -1225,7 +1226,7 @@
       <c r="Y21" s="6"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
+      <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
       <c r="AD21" s="6"/>
       <c r="AE21" s="6"/>
